--- a/aggregate_results_formatted_RMSE.xlsx
+++ b/aggregate_results_formatted_RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akyla\wind-forecast-missing-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A9397A-81C7-48D0-A79C-2DF21189C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D238B-F27F-4DDD-A875-7121531D7596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="735" windowWidth="27030" windowHeight="14130" activeTab="1" xr2:uid="{C74765F2-730D-4A28-B7C0-8142DF9A80EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C74765F2-730D-4A28-B7C0-8142DF9A80EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,21 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,175 +367,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -690,6 +521,144 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -697,10 +666,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -819,35 +819,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23C22B3C-245F-487D-B4F1-3657C7CF3E45}" name="Table1" displayName="Table1" ref="A1:N321" totalsRowShown="0">
-  <autoFilter ref="A1:N321" xr:uid="{23C22B3C-245F-487D-B4F1-3657C7CF3E45}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-        <filter val="16"/>
-        <filter val="4"/>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="0.05"/>
-        <filter val="0.1"/>
-        <filter val="0.2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0.1"/>
-        <filter val="0.2"/>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N321" xr:uid="{23C22B3C-245F-487D-B4F1-3657C7CF3E45}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D835805B-A1B6-4F28-A087-AFDCC45DDC5F}" name="steps"/>
     <tableColumn id="2" xr3:uid="{2AE73399-3E65-4A41-B1C6-285DCEAF4DA8}" name="P_0_1"/>
@@ -1041,7 +1013,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FAE03C-E4BD-442B-9E01-C2BADA4A55F4}" name="Table68" displayName="Table68" ref="Q1:X321" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11FAE03C-E4BD-442B-9E01-C2BADA4A55F4}" name="Table68" displayName="Table68" ref="Q1:X321" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="Q1:X321" xr:uid="{11FAE03C-E4BD-442B-9E01-C2BADA4A55F4}">
     <filterColumn colId="1">
       <filters>
@@ -1086,7 +1058,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84B2D12C-DF20-4CB3-BEB7-0DB82A75A237}" name="Table8" displayName="Table8" ref="AA1:AF321" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84B2D12C-DF20-4CB3-BEB7-0DB82A75A237}" name="Table8" displayName="Table8" ref="AA1:AF321" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="AA1:AF321" xr:uid="{84B2D12C-DF20-4CB3-BEB7-0DB82A75A237}">
     <filterColumn colId="1">
       <filters>
@@ -1109,10 +1081,10 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A6572A64-D89E-4706-9A32-978545DA9C55}" name="steps" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A117D440-F9E5-47DE-9690-CD89B0693209}" name="P_0_1" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A2146F11-67D4-4886-95E5-1A79D1CD29B0}" name="P_1_0" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{296386F6-D267-429A-BEFA-99344F1EB56B}" name="num_series" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A6572A64-D89E-4706-9A32-978545DA9C55}" name="steps" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A117D440-F9E5-47DE-9690-CD89B0693209}" name="P_0_1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{A2146F11-67D4-4886-95E5-1A79D1CD29B0}" name="P_1_0" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{296386F6-D267-429A-BEFA-99344F1EB56B}" name="num_series" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{26131FFD-14A1-49E0-8D26-8A5BF3862DC3}" name="SPAN LR"/>
     <tableColumn id="6" xr3:uid="{E2084136-4ECA-4D37-8E3E-F2BDF0260943}" name="SPAN NN"/>
   </tableColumns>
@@ -1439,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1A0BC-A3EE-474C-959B-4132FEBFBEAE}">
   <dimension ref="A1:AT321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1716,7 +1688,7 @@
         <v>26.096033402922757</v>
       </c>
     </row>
-    <row r="3" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1840,7 +1812,7 @@
         <v>27.568493150684922</v>
       </c>
     </row>
-    <row r="4" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1964,7 +1936,7 @@
         <v>22.549019607843135</v>
       </c>
     </row>
-    <row r="5" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2088,7 +2060,7 @@
         <v>25.661914460285136</v>
       </c>
     </row>
-    <row r="6" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2212,7 +2184,7 @@
         <v>20.37037037037037</v>
       </c>
     </row>
-    <row r="7" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2336,7 +2308,7 @@
         <v>24.009324009324015</v>
       </c>
     </row>
-    <row r="8" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2460,7 +2432,7 @@
         <v>18.662952646239557</v>
       </c>
     </row>
-    <row r="9" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2584,7 +2556,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2708,7 +2680,7 @@
         <v>20.572916666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2832,7 +2804,7 @@
         <v>19.786096256684498</v>
       </c>
     </row>
-    <row r="12" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2956,7 +2928,7 @@
         <v>18.681318681318686</v>
       </c>
     </row>
-    <row r="13" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3080,7 +3052,7 @@
         <v>17.647058823529409</v>
       </c>
     </row>
-    <row r="14" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3204,7 +3176,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="15" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3328,7 +3300,7 @@
         <v>13.931888544891645</v>
       </c>
     </row>
-    <row r="16" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3452,7 +3424,7 @@
         <v>15.697674418604651</v>
       </c>
     </row>
-    <row r="17" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3576,7 +3548,7 @@
         <v>13.437500000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3700,7 +3672,7 @@
         <v>14.454277286135699</v>
       </c>
     </row>
-    <row r="19" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3824,7 +3796,7 @@
         <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="20" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3948,7 +3920,7 @@
         <v>22.627737226277372</v>
       </c>
     </row>
-    <row r="21" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4168,7 +4140,7 @@
         <v>42.886597938144327</v>
       </c>
     </row>
-    <row r="23" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4360,7 +4332,7 @@
         <v>19.816513761467888</v>
       </c>
     </row>
-    <row r="25" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4456,7 +4428,7 @@
         <v>4.2780748663101642</v>
       </c>
     </row>
-    <row r="26" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4552,7 +4524,7 @@
         <v>4.502369668246434</v>
       </c>
     </row>
-    <row r="27" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4648,7 +4620,7 @@
         <v>-5.2341597796143233</v>
       </c>
     </row>
-    <row r="28" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4744,7 +4716,7 @@
         <v>-12.386706948640487</v>
       </c>
     </row>
-    <row r="29" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4840,7 +4812,7 @@
         <v>-15.923566878980891</v>
       </c>
     </row>
-    <row r="30" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4936,7 +4908,7 @@
         <v>-17.704918032786885</v>
       </c>
     </row>
-    <row r="31" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5032,7 +5004,7 @@
         <v>-18.120805369127517</v>
       </c>
     </row>
-    <row r="32" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5128,7 +5100,7 @@
         <v>-11.971830985915503</v>
       </c>
     </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5224,7 +5196,7 @@
         <v>-19.047619047619051</v>
       </c>
     </row>
-    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5416,7 +5388,7 @@
         <v>-19.587628865979376</v>
       </c>
     </row>
-    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5512,7 +5484,7 @@
         <v>53.27604726100968</v>
       </c>
     </row>
-    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5608,7 +5580,7 @@
         <v>46.170798898071624</v>
       </c>
     </row>
-    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5800,7 +5772,7 @@
         <v>39.36535162950257</v>
       </c>
     </row>
-    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5992,7 +5964,7 @@
         <v>23.357664233576639</v>
       </c>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6088,7 +6060,7 @@
         <v>-0.77720207253886653</v>
       </c>
     </row>
-    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6184,7 +6156,7 @@
         <v>8.4980237154150142</v>
       </c>
     </row>
-    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6280,7 +6252,7 @@
         <v>-0.70422535211268189</v>
       </c>
     </row>
-    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6376,7 +6348,7 @@
         <v>-8.5106382978723492</v>
       </c>
     </row>
-    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6472,7 +6444,7 @@
         <v>-14.985590778097983</v>
       </c>
     </row>
-    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6568,7 +6540,7 @@
         <v>-17.824773413897276</v>
       </c>
     </row>
-    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6664,7 +6636,7 @@
         <v>-21.069182389937104</v>
       </c>
     </row>
-    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6760,7 +6732,7 @@
         <v>-19.453924914675763</v>
       </c>
     </row>
-    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -6856,7 +6828,7 @@
         <v>-22.977346278317153</v>
       </c>
     </row>
-    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7048,7 +7020,7 @@
         <v>-24.092409240924095</v>
       </c>
     </row>
-    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -7144,7 +7116,7 @@
         <v>44.064171122994651</v>
       </c>
     </row>
-    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -7240,7 +7212,7 @@
         <v>42.437379576107908</v>
       </c>
     </row>
-    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -7432,7 +7404,7 @@
         <v>32.700729927007295</v>
       </c>
     </row>
-    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -7624,7 +7596,7 @@
         <v>19.518072289156638</v>
       </c>
     </row>
-    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7720,7 +7692,7 @@
         <v>9.3439363817097529</v>
       </c>
     </row>
-    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -7816,7 +7788,7 @@
         <v>11.783439490445865</v>
       </c>
     </row>
-    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7912,7 +7884,7 @@
         <v>2.186878727634201</v>
       </c>
     </row>
-    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8008,7 +7980,7 @@
         <v>-4.3378995433790042</v>
       </c>
     </row>
-    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8104,7 +8076,7 @@
         <v>-10.126582278480997</v>
       </c>
     </row>
-    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -8200,7 +8172,7 @@
         <v>-14.324324324324332</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -8296,7 +8268,7 @@
         <v>-17.663817663817667</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -8392,7 +8364,7 @@
         <v>-25.167785234899331</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -8488,7 +8460,7 @@
         <v>-21.257485029940121</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -8680,7 +8652,7 @@
         <v>-23.312883435582815</v>
       </c>
     </row>
-    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -8776,7 +8748,7 @@
         <v>7.4112734864300718</v>
       </c>
     </row>
-    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -8872,7 +8844,7 @@
         <v>15.193370165745844</v>
       </c>
     </row>
-    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -8968,7 +8940,7 @@
         <v>0.91533180778032119</v>
       </c>
     </row>
-    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -9064,7 +9036,7 @@
         <v>1.9693654266958391</v>
       </c>
     </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -9160,7 +9132,7 @@
         <v>-1.6706443914080999</v>
       </c>
     </row>
-    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -9256,7 +9228,7 @@
         <v>-3.1839622641509382</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -9352,7 +9324,7 @@
         <v>-1.1990407673860868</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -9448,7 +9420,7 @@
         <v>-2.9904306220095696</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -9544,7 +9516,7 @@
         <v>-2.7577937649880147</v>
       </c>
     </row>
-    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -9640,7 +9612,7 @@
         <v>-2.764423076923082</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -9736,7 +9708,7 @@
         <v>-2.2864019253910888</v>
       </c>
     </row>
-    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -9832,7 +9804,7 @@
         <v>-2.0481927710843362</v>
       </c>
     </row>
-    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -9928,7 +9900,7 @@
         <v>-2.2891566265060179</v>
       </c>
     </row>
-    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -10024,7 +9996,7 @@
         <v>-0.72376357056695417</v>
       </c>
     </row>
-    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -10120,7 +10092,7 @@
         <v>-2.168674698795177</v>
       </c>
     </row>
-    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -10216,7 +10188,7 @@
         <v>-0.3618817852834878</v>
       </c>
     </row>
-    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -10312,7 +10284,7 @@
         <v>-1.9300361881785302</v>
       </c>
     </row>
-    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -10408,7 +10380,7 @@
         <v>13.818181818181813</v>
       </c>
     </row>
-    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -10504,7 +10476,7 @@
         <v>33.140283140283138</v>
       </c>
     </row>
-    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -10696,7 +10668,7 @@
         <v>14.550264550264552</v>
       </c>
     </row>
-    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -10888,7 +10860,7 @@
         <v>-2.6200873362445436</v>
       </c>
     </row>
-    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -10984,7 +10956,7 @@
         <v>-5.7919621749408794</v>
       </c>
     </row>
-    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -11080,7 +11052,7 @@
         <v>-6.29290617848969</v>
       </c>
     </row>
-    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -11176,7 +11148,7 @@
         <v>-8.3627797408716038</v>
       </c>
     </row>
-    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -11272,7 +11244,7 @@
         <v>-8.6595492289442522</v>
       </c>
     </row>
-    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -11368,7 +11340,7 @@
         <v>-8.6904761904761951</v>
       </c>
     </row>
-    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -11464,7 +11436,7 @@
         <v>-8.5918854415274311</v>
       </c>
     </row>
-    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -11560,7 +11532,7 @@
         <v>-8.2535885167464276</v>
       </c>
     </row>
-    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -11656,7 +11628,7 @@
         <v>-5.415162454873637</v>
       </c>
     </row>
-    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -11752,7 +11724,7 @@
         <v>-8.3832335329341454</v>
       </c>
     </row>
-    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -11944,7 +11916,7 @@
         <v>-8.043217286914766</v>
       </c>
     </row>
-    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -12040,7 +12012,7 @@
         <v>24.451410658307207</v>
       </c>
     </row>
-    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -12136,7 +12108,7 @@
         <v>35.678391959798994</v>
       </c>
     </row>
-    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -12328,7 +12300,7 @@
         <v>20.062451209992194</v>
       </c>
     </row>
-    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -12520,7 +12492,7 @@
         <v>1.8255578093306259</v>
       </c>
     </row>
-    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -12616,7 +12588,7 @@
         <v>-7.1593533487297831</v>
       </c>
     </row>
-    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -12712,7 +12684,7 @@
         <v>-5.5309734513274345</v>
       </c>
     </row>
-    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -12808,7 +12780,7 @@
         <v>-8.018327605956463</v>
       </c>
     </row>
-    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -12904,7 +12876,7 @@
         <v>-9.5682613768961531</v>
       </c>
     </row>
-    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -13000,7 +12972,7 @@
         <v>-10.105757931844883</v>
       </c>
     </row>
-    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -13096,7 +13068,7 @@
         <v>-10.2836879432624</v>
       </c>
     </row>
-    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -13192,7 +13164,7 @@
         <v>-10.807600950118767</v>
       </c>
     </row>
-    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -13288,7 +13260,7 @@
         <v>-8.513189448441258</v>
       </c>
     </row>
-    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -13384,7 +13356,7 @@
         <v>-10.833333333333334</v>
       </c>
     </row>
-    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -13576,7 +13548,7 @@
         <v>-10.739856801909291</v>
       </c>
     </row>
-    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -13672,7 +13644,7 @@
         <v>30.506058446186739</v>
       </c>
     </row>
-    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -13768,7 +13740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -13960,7 +13932,7 @@
         <v>21.152494729444836</v>
       </c>
     </row>
-    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -14152,7 +14124,7 @@
         <v>5.9479553903345783</v>
       </c>
     </row>
-    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -14248,7 +14220,7 @@
         <v>-7.7448747152619761</v>
       </c>
     </row>
-    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -14344,7 +14316,7 @@
         <v>-2.1989528795811419</v>
       </c>
     </row>
-    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -14440,7 +14412,7 @@
         <v>-6.5049614112458638</v>
       </c>
     </row>
-    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -14536,7 +14508,7 @@
         <v>-8.1540203850509698</v>
       </c>
     </row>
-    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -14632,7 +14604,7 @@
         <v>-9.8039215686274481</v>
       </c>
     </row>
-    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -14728,7 +14700,7 @@
         <v>-10.360884749708971</v>
       </c>
     </row>
-    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -14824,7 +14796,7 @@
         <v>-10.772833723653417</v>
       </c>
     </row>
-    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -14920,7 +14892,7 @@
         <v>-10.978520286396181</v>
       </c>
     </row>
-    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -15016,7 +14988,7 @@
         <v>-11.176470588235286</v>
       </c>
     </row>
-    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -15208,7 +15180,7 @@
         <v>-11.334120425029505</v>
       </c>
     </row>
-    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -15304,7 +15276,7 @@
         <v>0.88070456365091621</v>
       </c>
     </row>
-    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>8</v>
       </c>
@@ -15400,7 +15372,7 @@
         <v>9.2872570194384512</v>
       </c>
     </row>
-    <row r="140" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>8</v>
       </c>
@@ -15496,7 +15468,7 @@
         <v>-1.8456375838926229</v>
       </c>
     </row>
-    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>8</v>
       </c>
@@ -15592,7 +15564,7 @@
         <v>-0.6493506493506499</v>
       </c>
     </row>
-    <row r="142" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>8</v>
       </c>
@@ -15688,7 +15660,7 @@
         <v>-2.5510204081632715</v>
       </c>
     </row>
-    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8</v>
       </c>
@@ -15784,7 +15756,7 @@
         <v>-3.5532994923857859</v>
       </c>
     </row>
-    <row r="144" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -15880,7 +15852,7 @@
         <v>-2.220324508966693</v>
       </c>
     </row>
-    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
@@ -15976,7 +15948,7 @@
         <v>-3.5775127768313451</v>
       </c>
     </row>
-    <row r="146" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -16072,7 +16044,7 @@
         <v>-3.2450896669513147</v>
       </c>
     </row>
-    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8</v>
       </c>
@@ -16168,7 +16140,7 @@
         <v>-3.2478632478632545</v>
       </c>
     </row>
-    <row r="148" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -16264,7 +16236,7 @@
         <v>-3.1623931623931711</v>
       </c>
     </row>
-    <row r="149" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8</v>
       </c>
@@ -16360,7 +16332,7 @@
         <v>-2.905982905982905</v>
       </c>
     </row>
-    <row r="150" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -16456,7 +16428,7 @@
         <v>-2.822925577416596</v>
       </c>
     </row>
-    <row r="151" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8</v>
       </c>
@@ -16552,7 +16524,7 @@
         <v>-2.2241231822070127</v>
       </c>
     </row>
-    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -16648,7 +16620,7 @@
         <v>-2.9084687767322488</v>
       </c>
     </row>
-    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -16744,7 +16716,7 @@
         <v>-2.1385799828913603</v>
       </c>
     </row>
-    <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -16840,7 +16812,7 @@
         <v>-2.6518391787852909</v>
       </c>
     </row>
-    <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
@@ -16936,7 +16908,7 @@
         <v>8.0575539568345391</v>
       </c>
     </row>
-    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -17032,7 +17004,7 @@
         <v>21.483679525222556</v>
       </c>
     </row>
-    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -17224,7 +17196,7 @@
         <v>5.697589481373261</v>
       </c>
     </row>
-    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -17416,7 +17388,7 @@
         <v>-3.9967373572593821</v>
       </c>
     </row>
-    <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -17512,7 +17484,7 @@
         <v>-5.3525913338997517</v>
       </c>
     </row>
-    <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -17608,7 +17580,7 @@
         <v>-5.8626465661641642</v>
       </c>
     </row>
-    <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -17704,7 +17676,7 @@
         <v>-6.3344594594594597</v>
       </c>
     </row>
-    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -17800,7 +17772,7 @@
         <v>-6.2925170068027239</v>
       </c>
     </row>
-    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -17896,7 +17868,7 @@
         <v>-6.3032367972742787</v>
       </c>
     </row>
-    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -17992,7 +17964,7 @@
         <v>-6.2180579216354381</v>
       </c>
     </row>
-    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8</v>
       </c>
@@ -18088,7 +18060,7 @@
         <v>-5.9676044330775726</v>
       </c>
     </row>
-    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -18184,7 +18156,7 @@
         <v>-4.1025641025641066</v>
       </c>
     </row>
-    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -18280,7 +18252,7 @@
         <v>-5.8873720136518717</v>
       </c>
     </row>
-    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
@@ -18472,7 +18444,7 @@
         <v>-5.892399658411609</v>
       </c>
     </row>
-    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -18568,7 +18540,7 @@
         <v>12.474576271186441</v>
       </c>
     </row>
-    <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -18664,7 +18636,7 @@
         <v>24.242424242424239</v>
       </c>
     </row>
-    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8</v>
       </c>
@@ -18856,7 +18828,7 @@
         <v>10.183299389002036</v>
       </c>
     </row>
-    <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8</v>
       </c>
@@ -19048,7 +19020,7 @@
         <v>-1.4150943396226392</v>
       </c>
     </row>
-    <row r="178" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8</v>
       </c>
@@ -19144,7 +19116,7 @@
         <v>-6.0504201680672169</v>
       </c>
     </row>
-    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8</v>
       </c>
@@ -19240,7 +19212,7 @@
         <v>-5.345394736842108</v>
       </c>
     </row>
-    <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -19336,7 +19308,7 @@
         <v>-6.6833751044277259</v>
       </c>
     </row>
-    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -19432,7 +19404,7 @@
         <v>-7.0766638584667376</v>
       </c>
     </row>
-    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -19528,7 +19500,7 @@
         <v>-7.3604060913705514</v>
       </c>
     </row>
-    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -19624,7 +19596,7 @@
         <v>-7.5551782682512787</v>
       </c>
     </row>
-    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -19720,7 +19692,7 @@
         <v>-7.482993197278919</v>
       </c>
     </row>
-    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -19816,7 +19788,7 @@
         <v>-6.0631938514090447</v>
       </c>
     </row>
-    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -19912,7 +19884,7 @@
         <v>-7.4893617021276668</v>
       </c>
     </row>
-    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -20104,7 +20076,7 @@
         <v>-7.4042553191489286</v>
       </c>
     </row>
-    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -20200,7 +20172,7 @@
         <v>15.151515151515145</v>
       </c>
     </row>
-    <row r="190" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -20296,7 +20268,7 @@
         <v>24.168399168399166</v>
       </c>
     </row>
-    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -20488,7 +20460,7 @@
         <v>12.092130518234168</v>
       </c>
     </row>
-    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -20680,7 +20652,7 @@
         <v>0.75585789871503883</v>
       </c>
     </row>
-    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -20776,7 +20748,7 @@
         <v>-5.3719008264462831</v>
       </c>
     </row>
-    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -20872,7 +20844,7 @@
         <v>-4.0865384615384599</v>
       </c>
     </row>
-    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -20968,7 +20940,7 @@
         <v>-6.1677631578947372</v>
       </c>
     </row>
-    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -21064,7 +21036,7 @@
         <v>-6.8994181213632588</v>
       </c>
     </row>
-    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8</v>
       </c>
@@ -21160,7 +21132,7 @@
         <v>-7.4601844090528129</v>
       </c>
     </row>
-    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -21256,7 +21228,7 @@
         <v>-8.0101180438448658</v>
       </c>
     </row>
-    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -21352,7 +21324,7 @@
         <v>-8.023648648648642</v>
       </c>
     </row>
-    <row r="202" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -21448,7 +21420,7 @@
         <v>-7.4168797953964116</v>
       </c>
     </row>
-    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8</v>
       </c>
@@ -21544,7 +21516,7 @@
         <v>-8.1287044877222616</v>
       </c>
     </row>
-    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -21736,7 +21708,7 @@
         <v>-8.1424936386768518</v>
       </c>
     </row>
-    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>16</v>
       </c>
@@ -21832,7 +21804,7 @@
         <v>1.8134715025906696</v>
       </c>
     </row>
-    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>16</v>
       </c>
@@ -21928,7 +21900,7 @@
         <v>3.4942820838627746</v>
       </c>
     </row>
-    <row r="208" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>16</v>
       </c>
@@ -22024,7 +21996,7 @@
         <v>-1.546738399462007</v>
       </c>
     </row>
-    <row r="209" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>16</v>
       </c>
@@ -22120,7 +22092,7 @@
         <v>-0.26490066225166176</v>
       </c>
     </row>
-    <row r="210" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>16</v>
       </c>
@@ -22216,7 +22188,7 @@
         <v>-2.2342586323628981</v>
       </c>
     </row>
-    <row r="211" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>16</v>
       </c>
@@ -22312,7 +22284,7 @@
         <v>-2.0242914979757014</v>
       </c>
     </row>
-    <row r="212" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>16</v>
       </c>
@@ -22408,7 +22380,7 @@
         <v>-2.3728813559322011</v>
       </c>
     </row>
-    <row r="213" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>16</v>
       </c>
@@ -22504,7 +22476,7 @@
         <v>-2.1650879566982431</v>
       </c>
     </row>
-    <row r="214" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>16</v>
       </c>
@@ -22600,7 +22572,7 @@
         <v>-2.4406779661016911</v>
       </c>
     </row>
-    <row r="215" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>16</v>
       </c>
@@ -22696,7 +22668,7 @@
         <v>-2.4406779661016911</v>
       </c>
     </row>
-    <row r="216" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>16</v>
       </c>
@@ -22792,7 +22764,7 @@
         <v>-2.3744911804613271</v>
       </c>
     </row>
-    <row r="217" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>16</v>
       </c>
@@ -22888,7 +22860,7 @@
         <v>-2.238805970149254</v>
       </c>
     </row>
-    <row r="218" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>16</v>
       </c>
@@ -22984,7 +22956,7 @@
         <v>-2.4423337856173637</v>
       </c>
     </row>
-    <row r="219" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>16</v>
       </c>
@@ -23080,7 +23052,7 @@
         <v>-2.4423337856173637</v>
       </c>
     </row>
-    <row r="220" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>16</v>
       </c>
@@ -23176,7 +23148,7 @@
         <v>-2.4423337856173637</v>
       </c>
     </row>
-    <row r="221" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>16</v>
       </c>
@@ -23272,7 +23244,7 @@
         <v>-2.3744911804613271</v>
       </c>
     </row>
-    <row r="222" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>16</v>
       </c>
@@ -23368,7 +23340,7 @@
         <v>-2.4423337856173637</v>
       </c>
     </row>
-    <row r="223" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>16</v>
       </c>
@@ -23464,7 +23436,7 @@
         <v>5.6381660470879806</v>
       </c>
     </row>
-    <row r="224" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>16</v>
       </c>
@@ -23560,7 +23532,7 @@
         <v>11.878926327812687</v>
       </c>
     </row>
-    <row r="225" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>16</v>
       </c>
@@ -23752,7 +23724,7 @@
         <v>4.0226272784412354</v>
       </c>
     </row>
-    <row r="227" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>16</v>
       </c>
@@ -23944,7 +23916,7 @@
         <v>-0.99667774086377792</v>
       </c>
     </row>
-    <row r="229" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>16</v>
       </c>
@@ -24040,7 +24012,7 @@
         <v>-2.0256583389601546</v>
       </c>
     </row>
-    <row r="230" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>16</v>
       </c>
@@ -24136,7 +24108,7 @@
         <v>-2.0861372812920624</v>
       </c>
     </row>
-    <row r="231" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>16</v>
       </c>
@@ -24232,7 +24204,7 @@
         <v>-2.1607022282241748</v>
       </c>
     </row>
-    <row r="232" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>16</v>
       </c>
@@ -24328,7 +24300,7 @@
         <v>-2.4340770791075133</v>
       </c>
     </row>
-    <row r="233" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>16</v>
       </c>
@@ -24424,7 +24396,7 @@
         <v>-2.3019634394041968</v>
       </c>
     </row>
-    <row r="234" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>16</v>
       </c>
@@ -24520,7 +24492,7 @@
         <v>-2.3035230352303513</v>
       </c>
     </row>
-    <row r="235" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>16</v>
       </c>
@@ -24616,7 +24588,7 @@
         <v>-2.2357723577235777</v>
       </c>
     </row>
-    <row r="236" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>16</v>
       </c>
@@ -24712,7 +24684,7 @@
         <v>-2.1694915254237306</v>
       </c>
     </row>
-    <row r="237" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>16</v>
       </c>
@@ -24808,7 +24780,7 @@
         <v>-2.237288135593221</v>
       </c>
     </row>
-    <row r="238" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>16</v>
       </c>
@@ -25000,7 +24972,7 @@
         <v>-2.237288135593221</v>
       </c>
     </row>
-    <row r="240" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>16</v>
       </c>
@@ -25096,7 +25068,7 @@
         <v>9.9648300117233273</v>
       </c>
     </row>
-    <row r="241" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>16</v>
       </c>
@@ -25192,7 +25164,7 @@
         <v>13.924050632911397</v>
       </c>
     </row>
-    <row r="242" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>16</v>
       </c>
@@ -25384,7 +25356,7 @@
         <v>5.975609756097553</v>
       </c>
     </row>
-    <row r="244" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>16</v>
       </c>
@@ -25576,7 +25548,7 @@
         <v>-0.19646365422397602</v>
       </c>
     </row>
-    <row r="246" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>16</v>
       </c>
@@ -25672,7 +25644,7 @@
         <v>-2.1548821548821571</v>
       </c>
     </row>
-    <row r="247" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>16</v>
       </c>
@@ -25768,7 +25740,7 @@
         <v>-1.5343562374916639</v>
       </c>
     </row>
-    <row r="248" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>16</v>
       </c>
@@ -25864,7 +25836,7 @@
         <v>-2.2192333557498323</v>
       </c>
     </row>
-    <row r="249" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>16</v>
       </c>
@@ -25960,7 +25932,7 @@
         <v>-2.4291497975708465</v>
       </c>
     </row>
-    <row r="250" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>16</v>
       </c>
@@ -26056,7 +26028,7 @@
         <v>-2.5016903313049426</v>
       </c>
     </row>
-    <row r="251" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>16</v>
       </c>
@@ -26152,7 +26124,7 @@
         <v>-2.4357239512855293</v>
       </c>
     </row>
-    <row r="252" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>16</v>
       </c>
@@ -26248,7 +26220,7 @@
         <v>-2.5067750677506844</v>
       </c>
     </row>
-    <row r="253" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>16</v>
       </c>
@@ -26344,7 +26316,7 @@
         <v>-2.3050847457627111</v>
       </c>
     </row>
-    <row r="254" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>16</v>
       </c>
@@ -26440,7 +26412,7 @@
         <v>-2.5067750677506844</v>
       </c>
     </row>
-    <row r="255" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>16</v>
       </c>
@@ -26632,7 +26604,7 @@
         <v>-2.5084745762711811</v>
       </c>
     </row>
-    <row r="257" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -26728,7 +26700,7 @@
         <v>10.310486233157585</v>
       </c>
     </row>
-    <row r="258" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16</v>
       </c>
@@ -26824,7 +26796,7 @@
         <v>14.462365591397855</v>
       </c>
     </row>
-    <row r="259" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16</v>
       </c>
@@ -27016,7 +26988,7 @@
         <v>6.4187162567486613</v>
       </c>
     </row>
-    <row r="261" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -27208,7 +27180,7 @@
         <v>0.70967741935483508</v>
       </c>
     </row>
-    <row r="263" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16</v>
       </c>
@@ -27304,7 +27276,7 @@
         <v>-1.6085790884718514</v>
       </c>
     </row>
-    <row r="264" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16</v>
       </c>
@@ -27400,7 +27372,7 @@
         <v>-1.591511936339524</v>
       </c>
     </row>
-    <row r="265" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16</v>
       </c>
@@ -27496,7 +27468,7 @@
         <v>-2.2073578595317733</v>
       </c>
     </row>
-    <row r="266" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16</v>
       </c>
@@ -27592,7 +27564,7 @@
         <v>-2.4865591397849407</v>
       </c>
     </row>
-    <row r="267" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>16</v>
       </c>
@@ -27688,7 +27660,7 @@
         <v>-2.6972353337828747</v>
       </c>
     </row>
-    <row r="268" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>16</v>
       </c>
@@ -27784,7 +27756,7 @@
         <v>-2.7683997299122223</v>
       </c>
     </row>
-    <row r="269" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>16</v>
       </c>
@@ -27880,7 +27852,7 @@
         <v>-2.7721433400946598</v>
       </c>
     </row>
-    <row r="270" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>16</v>
       </c>
@@ -27976,7 +27948,7 @@
         <v>-2.4390243902438988</v>
       </c>
     </row>
-    <row r="271" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>16</v>
       </c>
@@ -28072,7 +28044,7 @@
         <v>-2.7740189445196224</v>
       </c>
     </row>
-    <row r="272" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>16</v>
       </c>
@@ -28264,7 +28236,7 @@
         <v>-2.7063599458728036</v>
       </c>
     </row>
-    <row r="274" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>24</v>
       </c>
@@ -28360,7 +28332,7 @@
         <v>2.6461538461538443</v>
       </c>
     </row>
-    <row r="275" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>24</v>
       </c>
@@ -28456,7 +28428,7 @@
         <v>4.4179104477611846</v>
       </c>
     </row>
-    <row r="276" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>24</v>
       </c>
@@ -28552,7 +28524,7 @@
         <v>1.4474512271869127</v>
       </c>
     </row>
-    <row r="277" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>24</v>
       </c>
@@ -28648,7 +28620,7 @@
         <v>0.686213349968816</v>
       </c>
     </row>
-    <row r="278" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>24</v>
       </c>
@@ -28744,7 +28716,7 @@
         <v>0.8888888888888925</v>
       </c>
     </row>
-    <row r="279" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>24</v>
       </c>
@@ -28840,7 +28812,7 @@
         <v>0.44303797468354611</v>
       </c>
     </row>
-    <row r="280" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>24</v>
       </c>
@@ -28936,7 +28908,7 @@
         <v>1.4621741894469193</v>
       </c>
     </row>
-    <row r="281" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>24</v>
       </c>
@@ -29032,7 +29004,7 @@
         <v>0.63492063492063266</v>
       </c>
     </row>
-    <row r="282" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>24</v>
       </c>
@@ -29128,7 +29100,7 @@
         <v>1.9720101781170514</v>
       </c>
     </row>
-    <row r="283" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>24</v>
       </c>
@@ -29224,7 +29196,7 @@
         <v>1.1450381679389408</v>
       </c>
     </row>
-    <row r="284" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>24</v>
       </c>
@@ -29320,7 +29292,7 @@
         <v>2.035623409669213</v>
       </c>
     </row>
-    <row r="285" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>24</v>
       </c>
@@ -29416,7 +29388,7 @@
         <v>1.1450381679389408</v>
       </c>
     </row>
-    <row r="286" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>24</v>
       </c>
@@ -29512,7 +29484,7 @@
         <v>5.9341950646298356</v>
       </c>
     </row>
-    <row r="287" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>24</v>
       </c>
@@ -29608,7 +29580,7 @@
         <v>13.232104121475059</v>
       </c>
     </row>
-    <row r="288" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>24</v>
       </c>
@@ -29704,7 +29676,7 @@
         <v>0.91799265605874281</v>
       </c>
     </row>
-    <row r="289" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>24</v>
       </c>
@@ -29800,7 +29772,7 @@
         <v>4.4589774078477999</v>
       </c>
     </row>
-    <row r="290" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>24</v>
       </c>
@@ -29896,7 +29868,7 @@
         <v>-0.75424261470773724</v>
       </c>
     </row>
-    <row r="291" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>24</v>
       </c>
@@ -29992,7 +29964,7 @@
         <v>-0.74906367041199129</v>
       </c>
     </row>
-    <row r="292" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>24</v>
       </c>
@@ -30088,7 +30060,7 @@
         <v>-1.3291139240506382</v>
       </c>
     </row>
-    <row r="293" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>24</v>
       </c>
@@ -30184,7 +30156,7 @@
         <v>-1.7665615141955795</v>
       </c>
     </row>
-    <row r="294" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>24</v>
       </c>
@@ -30280,7 +30252,7 @@
         <v>-0.50890585241730324</v>
       </c>
     </row>
-    <row r="295" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>24</v>
       </c>
@@ -30376,7 +30348,7 @@
         <v>-1.9071837253655479</v>
       </c>
     </row>
-    <row r="296" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>24</v>
       </c>
@@ -30472,7 +30444,7 @@
         <v>-0.38167938931296896</v>
       </c>
     </row>
-    <row r="297" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>24</v>
       </c>
@@ -30568,7 +30540,7 @@
         <v>-1.9083969465648787</v>
       </c>
     </row>
-    <row r="298" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>24</v>
       </c>
@@ -30664,7 +30636,7 @@
         <v>9.4329028635597965</v>
       </c>
     </row>
-    <row r="299" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>24</v>
       </c>
@@ -30760,7 +30732,7 @@
         <v>15.591966173361527</v>
       </c>
     </row>
-    <row r="300" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>24</v>
       </c>
@@ -30856,7 +30828,7 @@
         <v>3.4793041391721764</v>
       </c>
     </row>
-    <row r="301" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>24</v>
       </c>
@@ -30952,7 +30924,7 @@
         <v>7.5854082223508907</v>
       </c>
     </row>
-    <row r="302" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>24</v>
       </c>
@@ -31048,7 +31020,7 @@
         <v>-1.3207547169811262</v>
       </c>
     </row>
-    <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>24</v>
       </c>
@@ -31144,7 +31116,7 @@
         <v>1.1699507389162422</v>
       </c>
     </row>
-    <row r="304" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>24</v>
       </c>
@@ -31240,7 +31212,7 @@
         <v>-2.15053763440859</v>
       </c>
     </row>
-    <row r="305" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>24</v>
       </c>
@@ -31336,7 +31308,7 @@
         <v>-1.3827781269641664</v>
       </c>
     </row>
-    <row r="306" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>24</v>
       </c>
@@ -31432,7 +31404,7 @@
         <v>-2.0992366412213745</v>
       </c>
     </row>
-    <row r="307" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>24</v>
       </c>
@@ -31528,7 +31500,7 @@
         <v>-3.1130876747141056</v>
       </c>
     </row>
-    <row r="308" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>24</v>
       </c>
@@ -31624,7 +31596,7 @@
         <v>-1.9720101781170514</v>
       </c>
     </row>
-    <row r="309" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>24</v>
       </c>
@@ -31720,7 +31692,7 @@
         <v>-3.1786395422759059</v>
       </c>
     </row>
-    <row r="310" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>24</v>
       </c>
@@ -31816,7 +31788,7 @@
         <v>11.141906873614181</v>
       </c>
     </row>
-    <row r="311" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>24</v>
       </c>
@@ -31912,7 +31884,7 @@
         <v>17.159149818558834</v>
       </c>
     </row>
-    <row r="312" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>24</v>
       </c>
@@ -32008,7 +31980,7 @@
         <v>3.71035308198684</v>
       </c>
     </row>
-    <row r="313" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>24</v>
       </c>
@@ -32104,7 +32076,7 @@
         <v>8.9663049685893874</v>
       </c>
     </row>
-    <row r="314" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>24</v>
       </c>
@@ -32244,7 +32216,7 @@
         <v>3.5778175313058909</v>
       </c>
     </row>
-    <row r="315" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>24</v>
       </c>
@@ -32384,7 +32356,7 @@
         <v>3.5108958837772404</v>
       </c>
     </row>
-    <row r="316" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>24</v>
       </c>
@@ -32524,7 +32496,7 @@
         <v>2.9994001199760043</v>
       </c>
     </row>
-    <row r="317" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>24</v>
       </c>
@@ -32664,7 +32636,7 @@
         <v>3.3272837265577779</v>
       </c>
     </row>
-    <row r="318" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>24</v>
       </c>
@@ -32804,7 +32776,7 @@
         <v>2.6929982046678593</v>
       </c>
     </row>
-    <row r="319" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>24</v>
       </c>
@@ -32944,7 +32916,7 @@
         <v>2.0531400966183568</v>
       </c>
     </row>
-    <row r="320" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>24</v>
       </c>
@@ -33084,7 +33056,7 @@
         <v>1.4571948998178412</v>
       </c>
     </row>
-    <row r="321" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>24</v>
       </c>
@@ -33226,50 +33198,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I321">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>E2=MAX($E2:$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>E2=MIN($E2:$I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N321">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>J2=MAX($J2:$N2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>J2=MIN($J2:$N2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Y321">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>U2=MIN($U2:$Y2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>U2=MAX($U2:$Y2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AD321">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>Z2=MAX($Z2:$AD2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>Z2=MIN($Z2:$AD2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AO321">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AK2=MIN($U2:$Y2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AK2=MAX($U2:$Y2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AT321">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AP2=MAX($Z2:$AD2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AP2=MIN($Z2:$AD2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33287,7 +33259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C9E7A-37E3-4BD3-A3A1-73B3203FF081}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -33477,7 +33449,7 @@
         <v>3.48</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P3:P37" si="0">I4-N4</f>
+        <f t="shared" ref="P4:P36" si="0">I4-N4</f>
         <v>-0.56999999999999984</v>
       </c>
     </row>
@@ -35067,18 +35039,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I37">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>E2=MAX($E2:$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>E2=MIN($E2:$I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N37">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>J2=MAX($J2:$N2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>J2=MIN($J2:$N2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35140,18 +35112,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:I321">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>E2=MAX($E2:$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>E2=MIN($E2:$I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N321">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>J2=MAX($J2:$N2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>J2=MIN($J2:$N2)</formula>
     </cfRule>
   </conditionalFormatting>
